--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_18_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_18_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55901.3215171487</v>
+        <v>11015822.36060524</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55901.3215171487</v>
+        <v>11015822.36060524</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>171487.3862792901</v>
+        <v>19213104.29279152</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171487.3862792901</v>
+        <v>19213104.29279152</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1606777247.503865</v>
+        <v>39774622.52487099</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18344.23446697735</v>
+        <v>862712.7905626078</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>35788.58213727417</v>
+        <v>1572656.8309028</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>52990.53810260896</v>
+        <v>2282600.871242993</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>69829.12511347901</v>
+        <v>2992336.071588757</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>86667.71212434905</v>
+        <v>3702071.271934522</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>103405.9108709722</v>
+        <v>4549259.509783369</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119445.0122470822</v>
+        <v>5674198.061960437</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>135213.2772595558</v>
+        <v>6745240.17777387</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>151505.9326086258</v>
+        <v>7581457.46927907</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>168008.8425031503</v>
+        <v>8459515.415329723</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>184511.7523976748</v>
+        <v>9337573.361380376</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>201014.6622921993</v>
+        <v>10215631.30743103</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>217517.5721867237</v>
+        <v>11093689.25348168</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>236213.4484424519</v>
+        <v>11594408.99936252</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>254526.4663508871</v>
+        <v>11854344.34402301</v>
       </c>
     </row>
   </sheetData>
